--- a/Algorithms/shawn/accuracy/FCs_summary.xlsx
+++ b/Algorithms/shawn/accuracy/FCs_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawnlyu/Desktop/courses/CSC2515/project/CSC2515Dota2DraftPredictionProject/algorithms/shawn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawnlyu/Desktop/courses/CSC2515/project/CSC2515Dota2DraftPredictionProject/algorithms/shawn/accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F585639-D85D-F444-BB11-4DC7E9BAADA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2739ABA6-EDF6-074D-855F-91F7D7E9542D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-18700" windowWidth="38400" windowHeight="17440" xr2:uid="{2A6AA169-9D4F-794B-86D6-D455B2A68CD5}"/>
+    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2A6AA169-9D4F-794B-86D6-D455B2A68CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>Neural network</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Best validation accuacy</t>
   </si>
   <si>
-    <t>Epoch of best validation</t>
-  </si>
-  <si>
     <t>Best training accuracy</t>
   </si>
   <si>
@@ -118,6 +115,18 @@
   </si>
   <si>
     <t>Epochs</t>
+  </si>
+  <si>
+    <t>Epoch of best validation(accuracy)</t>
+  </si>
+  <si>
+    <t>Epoch of best validation(loss)</t>
+  </si>
+  <si>
+    <t>Best training loss</t>
+  </si>
+  <si>
+    <t>Best validation loss</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC036F0E-C540-4A4A-8382-9F99B744768B}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="200" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,15 +502,18 @@
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -511,41 +523,50 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -554,7 +575,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -572,12 +593,21 @@
         <v>0.65165099999999998</v>
       </c>
       <c r="J3">
+        <v>199</v>
+      </c>
+      <c r="K3">
+        <v>0.62117199999999995</v>
+      </c>
+      <c r="L3">
+        <v>0.62305699999999997</v>
+      </c>
+      <c r="M3">
         <v>0.62219599999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -586,7 +616,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -604,21 +634,30 @@
         <v>0.64598800000000001</v>
       </c>
       <c r="J4">
+        <v>197</v>
+      </c>
+      <c r="K4">
+        <v>0.62829900000000005</v>
+      </c>
+      <c r="L4">
+        <v>0.62931700000000002</v>
+      </c>
+      <c r="M4">
         <v>0.62943800000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>600</v>
@@ -636,21 +675,30 @@
         <v>0.65581400000000001</v>
       </c>
       <c r="J5">
+        <v>275</v>
+      </c>
+      <c r="K5">
+        <v>0.59616599999999997</v>
+      </c>
+      <c r="L5">
+        <v>0.61752200000000002</v>
+      </c>
+      <c r="M5">
         <v>0.61810100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>600</v>
@@ -668,21 +716,30 @@
         <v>0.65031099999999997</v>
       </c>
       <c r="J6">
+        <v>575</v>
+      </c>
+      <c r="K6">
+        <v>0.61885699999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.62501899999999999</v>
+      </c>
+      <c r="M6">
         <v>0.62492400000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>800</v>
@@ -700,21 +757,30 @@
         <v>0.65614799999999995</v>
       </c>
       <c r="J7">
+        <v>252</v>
+      </c>
+      <c r="K7">
+        <v>0.58960500000000005</v>
+      </c>
+      <c r="L7">
+        <v>0.61890199999999995</v>
+      </c>
+      <c r="M7">
         <v>0.61857600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>800</v>
@@ -732,24 +798,33 @@
         <v>0.64969900000000003</v>
       </c>
       <c r="J8">
+        <v>711</v>
+      </c>
+      <c r="K8">
+        <v>0.62358199999999997</v>
+      </c>
+      <c r="L8">
+        <v>0.63086299999999995</v>
+      </c>
+      <c r="M8">
         <v>0.63062200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -767,21 +842,30 @@
         <v>0.64638899999999999</v>
       </c>
       <c r="J10">
+        <v>199</v>
+      </c>
+      <c r="K10">
+        <v>0.62843400000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.62873299999999999</v>
+      </c>
+      <c r="M10">
         <v>0.62737900000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>200</v>
@@ -799,21 +883,30 @@
         <v>0.64129499999999995</v>
       </c>
       <c r="J11">
+        <v>168</v>
+      </c>
+      <c r="K11">
+        <v>0.63837299999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.638687</v>
+      </c>
+      <c r="M11">
         <v>0.63938499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>600</v>
@@ -831,21 +924,30 @@
         <v>0.65619000000000005</v>
       </c>
       <c r="J12">
+        <v>296</v>
+      </c>
+      <c r="K12">
+        <v>0.59634699999999996</v>
+      </c>
+      <c r="L12">
+        <v>0.61788600000000005</v>
+      </c>
+      <c r="M12">
         <v>0.61828700000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>600</v>
@@ -863,21 +965,30 @@
         <v>0.64321700000000004</v>
       </c>
       <c r="J13">
+        <v>568</v>
+      </c>
+      <c r="K13">
+        <v>0.62890199999999996</v>
+      </c>
+      <c r="L13">
+        <v>0.63329400000000002</v>
+      </c>
+      <c r="M13">
         <v>0.63399700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>800</v>
@@ -895,21 +1006,30 @@
         <v>0.65607300000000002</v>
       </c>
       <c r="J14">
+        <v>233</v>
+      </c>
+      <c r="K14">
+        <v>0.58891800000000005</v>
+      </c>
+      <c r="L14">
+        <v>0.61848499999999995</v>
+      </c>
+      <c r="M14">
         <v>0.61867000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>800</v>
@@ -927,12 +1047,21 @@
         <v>0.65013799999999999</v>
       </c>
       <c r="J15">
+        <v>780</v>
+      </c>
+      <c r="K15">
+        <v>0.61749600000000004</v>
+      </c>
+      <c r="L15">
+        <v>0.62618700000000005</v>
+      </c>
+      <c r="M15">
         <v>0.62650499999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -942,41 +1071,50 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
       </c>
       <c r="H20" t="s">
         <v>1</v>
       </c>
       <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
         <v>27</v>
       </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -985,7 +1123,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>200</v>
@@ -1003,12 +1141,21 @@
         <v>0.61983200000000005</v>
       </c>
       <c r="J21">
+        <v>199</v>
+      </c>
+      <c r="K21">
+        <v>0.65589500000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.65774500000000002</v>
+      </c>
+      <c r="M21">
         <v>0.64899300000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1017,7 +1164,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>200</v>
@@ -1035,21 +1182,30 @@
         <v>0.61386499999999999</v>
       </c>
       <c r="J22">
+        <v>198</v>
+      </c>
+      <c r="K22">
+        <v>0.65946099999999996</v>
+      </c>
+      <c r="L22">
+        <v>0.66067200000000004</v>
+      </c>
+      <c r="M22">
         <v>0.65357900000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>600</v>
@@ -1067,21 +1223,30 @@
         <v>0.62352300000000005</v>
       </c>
       <c r="J23">
+        <v>396</v>
+      </c>
+      <c r="K23">
+        <v>0.62966</v>
+      </c>
+      <c r="L23">
+        <v>0.65451000000000004</v>
+      </c>
+      <c r="M23">
         <v>0.64491200000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>600</v>
@@ -1099,21 +1264,30 @@
         <v>0.61744299999999996</v>
       </c>
       <c r="J24">
+        <v>579</v>
+      </c>
+      <c r="K24">
+        <v>0.65493699999999999</v>
+      </c>
+      <c r="L24">
+        <v>0.65895800000000004</v>
+      </c>
+      <c r="M24">
         <v>0.65142599999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>800</v>
@@ -1131,21 +1305,30 @@
         <v>0.62246100000000004</v>
       </c>
       <c r="J25">
+        <v>316</v>
+      </c>
+      <c r="K25">
+        <v>0.607298</v>
+      </c>
+      <c r="L25">
+        <v>0.655026</v>
+      </c>
+      <c r="M25">
         <v>0.64641000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>800</v>
@@ -1163,24 +1346,33 @@
         <v>0.61852300000000004</v>
       </c>
       <c r="J26">
+        <v>778</v>
+      </c>
+      <c r="K26">
+        <v>0.65762699999999996</v>
+      </c>
+      <c r="L26">
+        <v>0.661798</v>
+      </c>
+      <c r="M26">
         <v>0.65432999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>200</v>
@@ -1198,21 +1390,30 @@
         <v>0.61860499999999996</v>
       </c>
       <c r="J28">
+        <v>199</v>
+      </c>
+      <c r="K28">
+        <v>0.657219</v>
+      </c>
+      <c r="L28">
+        <v>0.65818500000000002</v>
+      </c>
+      <c r="M28">
         <v>0.64968599999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>200</v>
@@ -1230,21 +1431,30 @@
         <v>0.61051200000000005</v>
       </c>
       <c r="J29">
+        <v>186</v>
+      </c>
+      <c r="K29">
+        <v>0.66467900000000002</v>
+      </c>
+      <c r="L29">
+        <v>0.66535900000000003</v>
+      </c>
+      <c r="M29">
         <v>0.65813299999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>600</v>
@@ -1262,21 +1472,30 @@
         <v>0.62236599999999997</v>
       </c>
       <c r="J30">
+        <v>384</v>
+      </c>
+      <c r="K30">
+        <v>0.62781699999999996</v>
+      </c>
+      <c r="L30">
+        <v>0.65417199999999998</v>
+      </c>
+      <c r="M30">
         <v>0.64557299999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>600</v>
@@ -1294,21 +1513,30 @@
         <v>0.61614800000000003</v>
       </c>
       <c r="J31">
+        <v>597</v>
+      </c>
+      <c r="K31">
+        <v>0.661134</v>
+      </c>
+      <c r="L31">
+        <v>0.66376000000000002</v>
+      </c>
+      <c r="M31">
         <v>0.65646899999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>800</v>
@@ -1326,21 +1554,30 @@
         <v>0.62221599999999999</v>
       </c>
       <c r="J32">
+        <v>316</v>
+      </c>
+      <c r="K32">
+        <v>0.60606000000000004</v>
+      </c>
+      <c r="L32">
+        <v>0.655416</v>
+      </c>
+      <c r="M32">
         <v>0.64659299999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>800</v>
@@ -1358,6 +1595,15 @@
         <v>0.61827399999999999</v>
       </c>
       <c r="J33">
+        <v>794</v>
+      </c>
+      <c r="K33">
+        <v>0.65414899999999998</v>
+      </c>
+      <c r="L33">
+        <v>0.65932000000000002</v>
+      </c>
+      <c r="M33">
         <v>0.65144500000000005</v>
       </c>
     </row>
